--- a/100-Work/110-FuSa/112-Audit&Assessment/Audit&Assessment Template.xlsx
+++ b/100-Work/110-FuSa/112-Audit&Assessment/Audit&Assessment Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Notes\100-Work\110-FuSa\112-Audit&amp;Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCDCF4-941D-4FEE-BFA7-82B07D332BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44700AE-7303-4E80-8CED-50A45B8FAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>scope of the Functional Safety Assessment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,14 +205,6 @@
   </si>
   <si>
     <t>ISO 26262 2nd Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ. No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,6 +224,46 @@
   </si>
   <si>
     <t>Check quality management status (ex. Certification, assessment report)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part2
+5.4.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier1 executes the safety licycle based on ISO/TS 16949 operational quality management system.
+-Acquired ISO/TS 16949 certification from TUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General competence management strategy and application to the project(incl. R&amp;R definiton)
+-sufficient level of skills, experience (domain knowledge, management experience)
+- Training, qualification program
+- Understanding of ISO 26262 standard
+- Understanding of own functional safety process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of implementation of general competence management startegy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review competency criteria and comparison with the responsibility in safety plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part2
+5.4.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety plan v2.0
+BMS </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,19 +307,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,25 +865,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C5C5A1-D27B-44FB-8571-DE7C1D604FE6}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="56.5546875" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="56" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -876,63 +912,80 @@
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
